--- a/WorkBot/main/backend/ordering/OrderFiles/Hillcrest Dairy/Hillcrest Dairy_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Hillcrest Dairy/Hillcrest Dairy_Triphammer_20250704.xlsx
@@ -451,135 +451,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>twog</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Milk - 2%</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>241.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>twop</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milk - 2% (12/16oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chop</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milk - Chocolate (12/16oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>skimg</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milk - Skim</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wholeg</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Milk - Whole</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
